--- a/Runtimes.xlsx
+++ b/Runtimes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haleylenander/Desktop/CS245/Assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D46D09-A6AC-7A4E-A8D9-26F54D019F40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3260BA91-B0A9-2141-B242-360E8DB1C813}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="460" windowWidth="24160" windowHeight="16760" xr2:uid="{4F1516BA-5FDD-5841-8F63-CEDDEB2F56C3}"/>
+    <workbookView xWindow="2900" yWindow="460" windowWidth="24160" windowHeight="16760" activeTab="1" xr2:uid="{4F1516BA-5FDD-5841-8F63-CEDDEB2F56C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm Runtimes" sheetId="1" r:id="rId1"/>
+    <sheet name="Merge Comparison" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Selection Sort</t>
   </si>
@@ -40,6 +41,9 @@
   </si>
   <si>
     <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Better Merge</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1054,671 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RUNNING</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> TIME OF MERGE SORT ALGORITHMS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merge Comparison'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Merge Comparison'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merge Comparison'!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B51E-A045-810C-71E08C400430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merge Comparison'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Better Merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Merge Comparison'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merge Comparison'!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85576</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175757</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>372083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B51E-A045-810C-71E08C400430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1419349392"/>
+        <c:axId val="1419215248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1419349392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1419215248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1419215248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1419349392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1606,6 +2274,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1616,10 +2800,10 @@
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1627,6 +2811,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A1EC32-C053-6B4E-9A3D-5DF260400071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801AFCA7-40F8-2F49-8906-F3BC78B0C843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A2B536-108C-4A4A-ABEA-7EEAC152D6A6}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2163,4 +3388,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868B27D8-5A87-F145-B1BE-EA8F2C015387}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C1" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D1" s="1">
+        <v>150000</v>
+      </c>
+      <c r="E1" s="1">
+        <v>200000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>250000</v>
+      </c>
+      <c r="G1" s="1">
+        <v>300000</v>
+      </c>
+      <c r="H1" s="1">
+        <v>350000</v>
+      </c>
+      <c r="I1" s="1">
+        <v>400000</v>
+      </c>
+      <c r="J1" s="1">
+        <v>450000</v>
+      </c>
+      <c r="K1" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>138</v>
+      </c>
+      <c r="F2">
+        <v>73</v>
+      </c>
+      <c r="G2">
+        <v>69</v>
+      </c>
+      <c r="H2">
+        <v>84</v>
+      </c>
+      <c r="I2">
+        <v>138</v>
+      </c>
+      <c r="J2">
+        <v>110</v>
+      </c>
+      <c r="K2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1834</v>
+      </c>
+      <c r="C3">
+        <v>8763</v>
+      </c>
+      <c r="D3">
+        <v>24274</v>
+      </c>
+      <c r="E3">
+        <v>55943</v>
+      </c>
+      <c r="F3">
+        <v>85576</v>
+      </c>
+      <c r="G3">
+        <v>119747</v>
+      </c>
+      <c r="H3">
+        <v>175757</v>
+      </c>
+      <c r="I3">
+        <v>199315</v>
+      </c>
+      <c r="J3">
+        <v>290132</v>
+      </c>
+      <c r="K3">
+        <v>372083</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Runtimes.xlsx
+++ b/Runtimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haleylenander/Desktop/CS245/Assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3260BA91-B0A9-2141-B242-360E8DB1C813}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140258A3-D338-7C43-938D-6FDCB06F320C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="460" windowWidth="24160" windowHeight="16760" activeTab="1" xr2:uid="{4F1516BA-5FDD-5841-8F63-CEDDEB2F56C3}"/>
+    <workbookView xWindow="3960" yWindow="460" windowWidth="24160" windowHeight="16760" activeTab="1" xr2:uid="{4F1516BA-5FDD-5841-8F63-CEDDEB2F56C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Algorithm Runtimes" sheetId="1" r:id="rId1"/>
@@ -1206,34 +1206,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>110</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,34 +1317,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1834</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8763</c:v>
+                  <c:v>3460</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24274</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55943</c:v>
+                  <c:v>19460</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85576</c:v>
+                  <c:v>30366</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119747</c:v>
+                  <c:v>54235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>175757</c:v>
+                  <c:v>79193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>199315</c:v>
+                  <c:v>91954</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>290132</c:v>
+                  <c:v>123620</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>372083</c:v>
+                  <c:v>160781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2836,14 +2836,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3172,7 +3172,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3395,7 +3395,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3437,34 +3437,34 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <v>138</v>
       </c>
       <c r="F2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G2">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H2">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="I2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J2">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="K2">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3472,34 +3472,34 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1834</v>
+        <v>1040</v>
       </c>
       <c r="C3">
-        <v>8763</v>
+        <v>3460</v>
       </c>
       <c r="D3">
-        <v>24274</v>
+        <v>8200</v>
       </c>
       <c r="E3">
-        <v>55943</v>
+        <v>19460</v>
       </c>
       <c r="F3">
-        <v>85576</v>
+        <v>30366</v>
       </c>
       <c r="G3">
-        <v>119747</v>
+        <v>54235</v>
       </c>
       <c r="H3">
-        <v>175757</v>
+        <v>79193</v>
       </c>
       <c r="I3">
-        <v>199315</v>
+        <v>91954</v>
       </c>
       <c r="J3">
-        <v>290132</v>
+        <v>123620</v>
       </c>
       <c r="K3">
-        <v>372083</v>
+        <v>160781</v>
       </c>
     </row>
   </sheetData>

--- a/Runtimes.xlsx
+++ b/Runtimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haleylenander/Desktop/CS245/Assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140258A3-D338-7C43-938D-6FDCB06F320C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9372C5-5A50-B94D-96E6-3A40A0A11F1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="460" windowWidth="24160" windowHeight="16760" activeTab="1" xr2:uid="{4F1516BA-5FDD-5841-8F63-CEDDEB2F56C3}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Selection Sort</t>
   </si>
@@ -1206,34 +1206,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>127</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>133</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,34 +1317,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1040</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3460</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8200</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19460</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30366</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54235</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79193</c:v>
+                  <c:v>1160</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91954</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123620</c:v>
+                  <c:v>1879</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>160781</c:v>
+                  <c:v>2392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,6 +1353,117 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B51E-A045-810C-71E08C400430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Merge Comparison'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Merge Comparison'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Merge Comparison'!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21087</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8459-CA4D-8A02-F70A1614FD47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3392,7 +3503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868B27D8-5A87-F145-B1BE-EA8F2C015387}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
@@ -3437,34 +3548,34 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>84</v>
       </c>
       <c r="E2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="G2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H2">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="I2">
         <v>139</v>
       </c>
       <c r="J2">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K2">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3472,34 +3583,69 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1040</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>3460</v>
+        <v>131</v>
       </c>
       <c r="D3">
-        <v>8200</v>
+        <v>223</v>
       </c>
       <c r="E3">
-        <v>19460</v>
+        <v>403</v>
       </c>
       <c r="F3">
-        <v>30366</v>
+        <v>603</v>
       </c>
       <c r="G3">
-        <v>54235</v>
+        <v>875</v>
       </c>
       <c r="H3">
-        <v>79193</v>
+        <v>1160</v>
       </c>
       <c r="I3">
-        <v>91954</v>
+        <v>1510</v>
       </c>
       <c r="J3">
-        <v>123620</v>
+        <v>1879</v>
       </c>
       <c r="K3">
-        <v>160781</v>
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>306</v>
+      </c>
+      <c r="C4">
+        <v>1223</v>
+      </c>
+      <c r="D4">
+        <v>2885</v>
+      </c>
+      <c r="E4">
+        <v>5184</v>
+      </c>
+      <c r="F4">
+        <v>7863</v>
+      </c>
+      <c r="G4">
+        <v>11702</v>
+      </c>
+      <c r="H4">
+        <v>16341</v>
+      </c>
+      <c r="I4">
+        <v>21087</v>
+      </c>
+      <c r="J4">
+        <v>26489</v>
+      </c>
+      <c r="K4">
+        <v>33604</v>
       </c>
     </row>
   </sheetData>
